--- a/testCases.xlsx
+++ b/testCases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\EaglePerformanceTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\Eagle-PerformanceTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEBD388-EE47-4A84-B5EE-E1C76EB52FD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA436AD8-9A29-435E-81F8-CFE5A41003E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="29016" windowHeight="15816" xr2:uid="{D1B67B2F-26A5-422D-86C3-E7AF34C9016B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D1B67B2F-26A5-422D-86C3-E7AF34C9016B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>flag</t>
   </si>
@@ -44,9 +44,6 @@
     <t>searchWithGroupType</t>
   </si>
   <si>
-    <t>OpenApplicationInNewTab</t>
-  </si>
-  <si>
     <t>navigateToOverviewPageFromOtherPageTest</t>
   </si>
   <si>
@@ -56,7 +53,40 @@
     <t>dataScreenPageLoadingTest</t>
   </si>
   <si>
-    <t>OverviewPageLoadingTest</t>
+    <t>MK2-StagingResponseTime</t>
+  </si>
+  <si>
+    <t>4500 ms</t>
+  </si>
+  <si>
+    <t>3000 ms</t>
+  </si>
+  <si>
+    <t>1000 ms</t>
+  </si>
+  <si>
+    <t>existCount</t>
+  </si>
+  <si>
+    <t>groupSavingTest</t>
+  </si>
+  <si>
+    <t>overviewPageLoadingTest</t>
+  </si>
+  <si>
+    <t>openApplicationInNewTab</t>
+  </si>
+  <si>
+    <t>dataScreenGetDataLoadingTest</t>
+  </si>
+  <si>
+    <t>3500 ms</t>
+  </si>
+  <si>
+    <t>4000 ms</t>
+  </si>
+  <si>
+    <t>13000 ms</t>
   </si>
 </sst>
 </file>
@@ -91,8 +121,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,76 +443,124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1055DAE2-0B58-45EF-BD96-843C03E6D4B1}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.21875" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
       <c r="B7" t="b">
         <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{D469F698-01E3-457E-A856-116A0602D377}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16:B1048576 B1:B11 B13:B14" xr:uid="{D469F698-01E3-457E-A856-116A0602D377}">
       <formula1>"true,false"</formula1>
     </dataValidation>
   </dataValidations>
